--- a/artfynd/A 65657-2018.xlsx
+++ b/artfynd/A 65657-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>81524</v>
+        <v>1671663</v>
       </c>
       <c r="B2" t="n">
-        <v>77540</v>
+        <v>89355</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>185</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Ärtåkersberget, Mpd</t>
+          <t>Skog runt Holmviken, Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>639702.7360244881</v>
+        <v>639864.7295810565</v>
       </c>
       <c r="R2" t="n">
-        <v>6933219.359986998</v>
+        <v>6933531.001469747</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -768,6 +768,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>fuktigt parti,granlagor</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
@@ -776,6 +781,11 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>granlåga</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -796,10 +806,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1671663</v>
+        <v>3025005</v>
       </c>
       <c r="B3" t="n">
-        <v>89355</v>
+        <v>96333</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +818,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +846,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>639864.7295810565</v>
+        <v>639832.1410786621</v>
       </c>
       <c r="R3" t="n">
-        <v>6933531.001469747</v>
+        <v>6933556.920086055</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -886,7 +896,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>fuktigt parti,granlagor</t>
+          <t>aldre granskog,inslag av grov tall,al</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -897,11 +907,6 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>granlåga</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -922,10 +927,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3025005</v>
+        <v>1671662</v>
       </c>
       <c r="B4" t="n">
-        <v>96333</v>
+        <v>89355</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,25 +939,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -962,10 +967,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>639832.1410786621</v>
+        <v>639887.2042885623</v>
       </c>
       <c r="R4" t="n">
-        <v>6933556.920086055</v>
+        <v>6933503.269591155</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1012,7 +1017,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>aldre granskog,inslag av grov tall,al</t>
+          <t>lagarikt,forrotafe lagor</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1023,6 +1028,11 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>granlåga</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1043,10 +1053,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1671662</v>
+        <v>441292</v>
       </c>
       <c r="B5" t="n">
-        <v>89355</v>
+        <v>89391</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1055,25 +1065,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1169,10 +1179,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1671661</v>
+        <v>16620041</v>
       </c>
       <c r="B6" t="n">
-        <v>89355</v>
+        <v>81064</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1185,37 +1195,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5447</v>
+        <v>5046</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Grön jordtunga</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Microglossum viride</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Pers.:Fr.) Gillet</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Ärtåkersberget, Mpd</t>
+          <t>Åvikebruk i sydväst, Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>639743.6240542857</v>
+        <v>639929.0278371724</v>
       </c>
       <c r="R6" t="n">
-        <v>6933216.452873974</v>
+        <v>6933566.085748027</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1239,7 +1249,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2007-07-19</t>
+          <t>2014-09-11</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1249,7 +1259,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2007-07-19</t>
+          <t>2014-09-11</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1266,34 +1276,30 @@
       <c r="AG6" t="b">
         <v>0</v>
       </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>granlåga</t>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Sumpskogsartad kalkbarrskog med lövinslag</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Hans Sundström</t>
+          <t>Crister Albinsson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Hans Sundström, Sofia Lundell</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Naturskyddare</t>
-        </is>
-      </c>
+          <t>Crister Albinsson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>441292</v>
+        <v>16620039</v>
       </c>
       <c r="B7" t="n">
-        <v>89391</v>
+        <v>86130</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1302,41 +1308,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>239209</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kantarellvaxskivling</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hygrocybe cantharellus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Skog runt Holmviken, Mpd</t>
+          <t>Åvikebruk i sydväst, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>639887.2042885623</v>
+        <v>639929.0278371724</v>
       </c>
       <c r="R7" t="n">
-        <v>6933503.269591155</v>
+        <v>6933566.085748027</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1360,7 +1366,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2007-07-19</t>
+          <t>2014-09-11</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1370,7 +1376,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2007-07-19</t>
+          <t>2014-09-11</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1378,11 +1384,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>lagarikt,forrotafe lagor</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1392,34 +1393,30 @@
       <c r="AG7" t="b">
         <v>0</v>
       </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>granlåga</t>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Sumpskogsartad kalkbarrskog med lövinslag</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Hans Sundström</t>
+          <t>Crister Albinsson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Hans Sundström, Sofia Lundell</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>Naturskyddare</t>
-        </is>
-      </c>
+          <t>Crister Albinsson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16620041</v>
+        <v>16638259</v>
       </c>
       <c r="B8" t="n">
-        <v>81064</v>
+        <v>88886</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1428,28 +1425,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5046</v>
+        <v>3286</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Grön jordtunga</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Microglossum viride</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Gillet</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Åvikebruk i sydväst, Mpd</t>
@@ -1462,7 +1461,7 @@
         <v>6933566.085748027</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1510,12 +1509,13 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Sumpskogsartad kalkbarrskog med lövinslag</t>
+          <t>Kalkhaltig blandsumpskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1526,17 +1526,17 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Crister Albinsson</t>
+          <t>Crister Albinsson, Ellen Larsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16620039</v>
+        <v>16639024</v>
       </c>
       <c r="B9" t="n">
-        <v>86130</v>
+        <v>90665</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1549,37 +1549,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>239209</v>
+        <v>4366</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kantarellvaxskivling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hygrocybe cantharellus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Åvikebruk i sydväst, Mpd</t>
+          <t>Åvike bruk i sydväst, Mpd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>639929.0278371724</v>
+        <v>639977.3576450979</v>
       </c>
       <c r="R9" t="n">
-        <v>6933566.085748027</v>
+        <v>6933540.368474075</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1627,12 +1629,13 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Sumpskogsartad kalkbarrskog med lövinslag</t>
+          <t>Gransumpskog</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1643,17 +1646,17 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Crister Albinsson</t>
+          <t>Crister Albinsson, Ellen Larsson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16638259</v>
+        <v>55244917</v>
       </c>
       <c r="B10" t="n">
-        <v>88886</v>
+        <v>89392</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1666,39 +1669,37 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3286</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Åvikebruk i sydväst, Mpd</t>
+          <t>Ärtåkersberget, Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>639929.0278371724</v>
+        <v>639756.0474824576</v>
       </c>
       <c r="R10" t="n">
-        <v>6933566.085748027</v>
+        <v>6933471.849318717</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1722,7 +1723,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2014-09-11</t>
+          <t>2015-08-19</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1732,7 +1733,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2014-09-11</t>
+          <t>2015-08-19</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1746,34 +1747,28 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Kalkhaltig blandsumpskog</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Crister Albinsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Crister Albinsson, Ellen Larsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16639024</v>
+        <v>1548586</v>
       </c>
       <c r="B11" t="n">
-        <v>90665</v>
+        <v>89410</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1782,40 +1777,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4366</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Åvike bruk i sydväst, Mpd</t>
+          <t>Årtåkersberget, Mpd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>639977.3576450979</v>
+        <v>639973.5699390528</v>
       </c>
       <c r="R11" t="n">
-        <v>6933540.368474075</v>
+        <v>6933520.319573058</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1842,7 +1835,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2014-09-11</t>
+          <t>2008-08-05</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1852,7 +1845,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2014-09-11</t>
+          <t>2008-08-05</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1866,31 +1859,30 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>Gransumpskog</t>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Crister Albinsson</t>
+          <t>Andreas Karlberg</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Crister Albinsson, Ellen Larsson</t>
+          <t>Sofia Lundell, Hans Sundström</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>55244917</v>
+        <v>312999</v>
       </c>
       <c r="B12" t="n">
         <v>89392</v>
@@ -1926,17 +1918,17 @@
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Ärtåkersberget, Mpd</t>
+          <t>Årtåkersberget, Mpd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>639756.0474824576</v>
+        <v>639973.5699390528</v>
       </c>
       <c r="R12" t="n">
-        <v>6933471.849318717</v>
+        <v>6933520.319573058</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1960,7 +1952,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2015-08-19</t>
+          <t>2008-08-05</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1970,7 +1962,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2015-08-19</t>
+          <t>2008-08-05</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1986,26 +1978,36 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Andreas Karlberg</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Sofia Lundell, Hans Sundström</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>55244779</v>
+        <v>32255</v>
       </c>
       <c r="B13" t="n">
-        <v>96334</v>
+        <v>57587</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2014,41 +2016,50 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>100141</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Triturus cristatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(Laurenti, 1768)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>larv</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Ärtåkersberget, Mpd</t>
+          <t>Holmvikberget, Mpd</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>639710.8040872273</v>
+        <v>639944.150379308</v>
       </c>
       <c r="R13" t="n">
-        <v>6933236.814618457</v>
+        <v>6933569.960243458</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2072,7 +2083,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2015-08-19</t>
+          <t>2007-08-29</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2082,12 +2093,17 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2015-08-19</t>
+          <t>2007-09-06</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>4021</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2102,62 +2118,68 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Andreas Karlberg</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr"/>
+          <t>Via Andreas Karlberg</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Åtgärdsprogram för hotade arter</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1548586</v>
+        <v>16638609</v>
       </c>
       <c r="B14" t="n">
-        <v>89410</v>
+        <v>89170</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Behöver inte valideras</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>3215</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Årtåkersberget, Mpd</t>
+          <t>Åvikebruk i sydväst, Mpd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>639973.5699390528</v>
+        <v>639929.0278371724</v>
       </c>
       <c r="R14" t="n">
-        <v>6933520.319573058</v>
+        <v>6933566.085748027</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2184,7 +2206,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2008-08-05</t>
+          <t>2014-09-11</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2194,7 +2216,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2008-08-05</t>
+          <t>2014-09-11</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2208,33 +2230,34 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>Granskog</t>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Kalkhaltig blandsumpskog</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Andreas Karlberg</t>
+          <t>Crister Albinsson</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Sofia Lundell, Hans Sundström</t>
+          <t>Crister Albinsson, Ellen Larsson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>312999</v>
+        <v>81524</v>
       </c>
       <c r="B15" t="n">
-        <v>89392</v>
+        <v>77540</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2247,34 +2270,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>185</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Årtåkersberget, Mpd</t>
+          <t>Ärtåkersberget, Mpd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>639973.5699390528</v>
+        <v>639702.7360244881</v>
       </c>
       <c r="R15" t="n">
-        <v>6933520.319573058</v>
+        <v>6933219.359986998</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2301,7 +2324,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2008-08-05</t>
+          <t>2007-07-19</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2311,7 +2334,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2008-08-05</t>
+          <t>2007-07-19</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2327,36 +2350,30 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Andreas Karlberg</t>
+          <t>Hans Sundström</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Sofia Lundell, Hans Sundström</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr"/>
+          <t>Hans Sundström, Sofia Lundell</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Naturskyddare</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>32255</v>
+        <v>1671661</v>
       </c>
       <c r="B16" t="n">
-        <v>57587</v>
+        <v>89355</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2369,46 +2386,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100141</v>
+        <v>5447</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Triturus cristatus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Laurenti, 1768)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>larv</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Holmvikberget, Mpd</t>
+          <t>Ärtåkersberget, Mpd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>639944.150379308</v>
+        <v>639743.6240542857</v>
       </c>
       <c r="R16" t="n">
-        <v>6933569.960243458</v>
+        <v>6933216.452873974</v>
       </c>
       <c r="S16" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2432,7 +2440,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2007-08-29</t>
+          <t>2007-07-19</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2442,7 +2450,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2007-09-06</t>
+          <t>2007-07-19</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2450,11 +2458,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>4021</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2463,30 +2466,35 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>granlåga</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Andreas Karlberg</t>
+          <t>Hans Sundström</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Via Andreas Karlberg</t>
+          <t>Hans Sundström, Sofia Lundell</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>Åtgärdsprogram för hotade arter</t>
+          <t>Naturskyddare</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1886465</v>
+        <v>55244779</v>
       </c>
       <c r="B17" t="n">
-        <v>78503</v>
+        <v>96334</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2495,41 +2503,41 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6456</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Årtåkersberget, Mpd</t>
+          <t>Ärtåkersberget, Mpd</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>639730.1124863401</v>
+        <v>639710.8040872273</v>
       </c>
       <c r="R17" t="n">
-        <v>6933416.640251659</v>
+        <v>6933236.814618457</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2553,7 +2561,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2008-08-05</t>
+          <t>2015-08-19</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2563,7 +2571,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2008-08-05</t>
+          <t>2015-08-19</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2583,22 +2591,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Andreas Karlberg</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Sofia Lundell, Hans Sundström</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1673794</v>
+        <v>1886465</v>
       </c>
       <c r="B18" t="n">
-        <v>89356</v>
+        <v>78503</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2611,21 +2619,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5447</v>
+        <v>6456</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2635,10 +2643,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>639737.6169066937</v>
+        <v>639730.1124863401</v>
       </c>
       <c r="R18" t="n">
-        <v>6933447.484317567</v>
+        <v>6933416.640251659</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2691,11 +2699,6 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2712,14 +2715,14 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16638609</v>
+        <v>1673794</v>
       </c>
       <c r="B19" t="n">
-        <v>89170</v>
+        <v>89356</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Behöver inte valideras</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2728,36 +2731,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3215</v>
+        <v>5447</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Åvikebruk i sydväst, Mpd</t>
+          <t>Årtåkersberget, Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>639929.0278371724</v>
+        <v>639737.6169066937</v>
       </c>
       <c r="R19" t="n">
-        <v>6933566.085748027</v>
+        <v>6933447.484317567</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2784,7 +2785,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2014-09-11</t>
+          <t>2008-08-05</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2794,7 +2795,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2014-09-11</t>
+          <t>2008-08-05</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2808,24 +2809,23 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>Kalkhaltig blandsumpskog</t>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Crister Albinsson</t>
+          <t>Andreas Karlberg</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Crister Albinsson, Ellen Larsson</t>
+          <t>Sofia Lundell, Hans Sundström</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>

--- a/artfynd/A 65657-2018.xlsx
+++ b/artfynd/A 65657-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1671663</v>
+        <v>81524</v>
       </c>
       <c r="B2" t="n">
-        <v>89355</v>
+        <v>77540</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5447</v>
+        <v>185</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Skog runt Holmviken, Mpd</t>
+          <t>Ärtåkersberget, Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>639864.7295810565</v>
+        <v>639702.7360244881</v>
       </c>
       <c r="R2" t="n">
-        <v>6933531.001469747</v>
+        <v>6933219.359986998</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -768,11 +768,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>fuktigt parti,granlagor</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
@@ -781,11 +776,6 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>granlåga</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -806,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3025005</v>
+        <v>1671663</v>
       </c>
       <c r="B3" t="n">
-        <v>96333</v>
+        <v>89355</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -846,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>639832.1410786621</v>
+        <v>639864.7295810565</v>
       </c>
       <c r="R3" t="n">
-        <v>6933556.920086055</v>
+        <v>6933531.001469747</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -896,7 +886,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>aldre granskog,inslag av grov tall,al</t>
+          <t>fuktigt parti,granlagor</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -907,6 +897,11 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>granlåga</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -927,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1671662</v>
+        <v>3025005</v>
       </c>
       <c r="B4" t="n">
-        <v>89355</v>
+        <v>96333</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -939,25 +934,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -967,10 +962,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>639887.2042885623</v>
+        <v>639832.1410786621</v>
       </c>
       <c r="R4" t="n">
-        <v>6933503.269591155</v>
+        <v>6933556.920086055</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1017,7 +1012,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>lagarikt,forrotafe lagor</t>
+          <t>aldre granskog,inslag av grov tall,al</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1028,11 +1023,6 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>granlåga</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1053,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>441292</v>
+        <v>1671662</v>
       </c>
       <c r="B5" t="n">
-        <v>89391</v>
+        <v>89355</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1065,25 +1055,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1179,10 +1169,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16620041</v>
+        <v>1671661</v>
       </c>
       <c r="B6" t="n">
-        <v>81064</v>
+        <v>89355</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1195,37 +1185,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5046</v>
+        <v>5447</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grön jordtunga</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Microglossum viride</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Pers.:Fr.) Gillet</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Åvikebruk i sydväst, Mpd</t>
+          <t>Ärtåkersberget, Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>639929.0278371724</v>
+        <v>639743.6240542857</v>
       </c>
       <c r="R6" t="n">
-        <v>6933566.085748027</v>
+        <v>6933216.452873974</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1249,7 +1239,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2014-09-11</t>
+          <t>2007-07-19</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1259,7 +1249,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2014-09-11</t>
+          <t>2007-07-19</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1276,30 +1266,34 @@
       <c r="AG6" t="b">
         <v>0</v>
       </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>Sumpskogsartad kalkbarrskog med lövinslag</t>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Crister Albinsson</t>
+          <t>Hans Sundström</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Crister Albinsson</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+          <t>Hans Sundström, Sofia Lundell</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Naturskyddare</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16620039</v>
+        <v>441292</v>
       </c>
       <c r="B7" t="n">
-        <v>86130</v>
+        <v>89391</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1308,41 +1302,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>239209</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kantarellvaxskivling</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hygrocybe cantharellus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Åvikebruk i sydväst, Mpd</t>
+          <t>Skog runt Holmviken, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>639929.0278371724</v>
+        <v>639887.2042885623</v>
       </c>
       <c r="R7" t="n">
-        <v>6933566.085748027</v>
+        <v>6933503.269591155</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1366,7 +1360,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2014-09-11</t>
+          <t>2007-07-19</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1376,7 +1370,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2014-09-11</t>
+          <t>2007-07-19</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1384,6 +1378,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>lagarikt,forrotafe lagor</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1393,30 +1392,34 @@
       <c r="AG7" t="b">
         <v>0</v>
       </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>Sumpskogsartad kalkbarrskog med lövinslag</t>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Crister Albinsson</t>
+          <t>Hans Sundström</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Crister Albinsson</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr"/>
+          <t>Hans Sundström, Sofia Lundell</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Naturskyddare</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16638259</v>
+        <v>16620041</v>
       </c>
       <c r="B8" t="n">
-        <v>88886</v>
+        <v>81064</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1425,30 +1428,28 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3286</v>
+        <v>5046</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Grön jordtunga</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Microglossum viride</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Pers.:Fr.) Gillet</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Åvikebruk i sydväst, Mpd</t>
@@ -1461,7 +1462,7 @@
         <v>6933566.085748027</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1509,13 +1510,12 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Kalkhaltig blandsumpskog</t>
+          <t>Sumpskogsartad kalkbarrskog med lövinslag</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1526,17 +1526,17 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Crister Albinsson, Ellen Larsson</t>
+          <t>Crister Albinsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16639024</v>
+        <v>16620039</v>
       </c>
       <c r="B9" t="n">
-        <v>90665</v>
+        <v>86130</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1549,39 +1549,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4366</v>
+        <v>239209</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Kantarellvaxskivling</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hygrocybe cantharellus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Åvike bruk i sydväst, Mpd</t>
+          <t>Åvikebruk i sydväst, Mpd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>639977.3576450979</v>
+        <v>639929.0278371724</v>
       </c>
       <c r="R9" t="n">
-        <v>6933540.368474075</v>
+        <v>6933566.085748027</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1629,13 +1627,12 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Gransumpskog</t>
+          <t>Sumpskogsartad kalkbarrskog med lövinslag</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1646,17 +1643,17 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Crister Albinsson, Ellen Larsson</t>
+          <t>Crister Albinsson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>55244917</v>
+        <v>16638259</v>
       </c>
       <c r="B10" t="n">
-        <v>89392</v>
+        <v>88886</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1669,37 +1666,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>3286</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Ärtåkersberget, Mpd</t>
+          <t>Åvikebruk i sydväst, Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>639756.0474824576</v>
+        <v>639929.0278371724</v>
       </c>
       <c r="R10" t="n">
-        <v>6933471.849318717</v>
+        <v>6933566.085748027</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1723,7 +1722,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2015-08-19</t>
+          <t>2014-09-11</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1733,7 +1732,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2015-08-19</t>
+          <t>2014-09-11</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1747,28 +1746,34 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Kalkhaltig blandsumpskog</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Crister Albinsson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Crister Albinsson, Ellen Larsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1548586</v>
+        <v>16639024</v>
       </c>
       <c r="B11" t="n">
-        <v>89410</v>
+        <v>90665</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1777,38 +1782,40 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>4366</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Årtåkersberget, Mpd</t>
+          <t>Åvike bruk i sydväst, Mpd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>639973.5699390528</v>
+        <v>639977.3576450979</v>
       </c>
       <c r="R11" t="n">
-        <v>6933520.319573058</v>
+        <v>6933540.368474075</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1835,7 +1842,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2008-08-05</t>
+          <t>2014-09-11</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1845,7 +1852,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2008-08-05</t>
+          <t>2014-09-11</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1859,30 +1866,31 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>Granskog</t>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Gransumpskog</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Andreas Karlberg</t>
+          <t>Crister Albinsson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Sofia Lundell, Hans Sundström</t>
+          <t>Crister Albinsson, Ellen Larsson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>312999</v>
+        <v>55244917</v>
       </c>
       <c r="B12" t="n">
         <v>89392</v>
@@ -1918,17 +1926,17 @@
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Årtåkersberget, Mpd</t>
+          <t>Ärtåkersberget, Mpd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>639973.5699390528</v>
+        <v>639756.0474824576</v>
       </c>
       <c r="R12" t="n">
-        <v>6933520.319573058</v>
+        <v>6933471.849318717</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1952,7 +1960,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2008-08-05</t>
+          <t>2015-08-19</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1962,7 +1970,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2008-08-05</t>
+          <t>2015-08-19</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1978,36 +1986,26 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Andreas Karlberg</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Sofia Lundell, Hans Sundström</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>32255</v>
+        <v>55244779</v>
       </c>
       <c r="B13" t="n">
-        <v>57587</v>
+        <v>96334</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2016,50 +2014,41 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100141</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Triturus cristatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Laurenti, 1768)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>larv</t>
-        </is>
-      </c>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Holmvikberget, Mpd</t>
+          <t>Ärtåkersberget, Mpd</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>639944.150379308</v>
+        <v>639710.8040872273</v>
       </c>
       <c r="R13" t="n">
-        <v>6933569.960243458</v>
+        <v>6933236.814618457</v>
       </c>
       <c r="S13" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2083,7 +2072,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2007-08-29</t>
+          <t>2015-08-19</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2093,17 +2082,12 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2007-09-06</t>
+          <t>2015-08-19</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>4021</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2118,68 +2102,62 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Andreas Karlberg</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Via Andreas Karlberg</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>Åtgärdsprogram för hotade arter</t>
-        </is>
-      </c>
+          <t>Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>16638609</v>
+        <v>1548586</v>
       </c>
       <c r="B14" t="n">
-        <v>89170</v>
+        <v>89410</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Behöver inte valideras</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3215</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Åvikebruk i sydväst, Mpd</t>
+          <t>Årtåkersberget, Mpd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>639929.0278371724</v>
+        <v>639973.5699390528</v>
       </c>
       <c r="R14" t="n">
-        <v>6933566.085748027</v>
+        <v>6933520.319573058</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2206,7 +2184,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2014-09-11</t>
+          <t>2008-08-05</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2216,7 +2194,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2014-09-11</t>
+          <t>2008-08-05</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2230,34 +2208,33 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>Kalkhaltig blandsumpskog</t>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Crister Albinsson</t>
+          <t>Andreas Karlberg</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Crister Albinsson, Ellen Larsson</t>
+          <t>Sofia Lundell, Hans Sundström</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>81524</v>
+        <v>312999</v>
       </c>
       <c r="B15" t="n">
-        <v>77540</v>
+        <v>89392</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2270,34 +2247,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>185</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Ärtåkersberget, Mpd</t>
+          <t>Årtåkersberget, Mpd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>639702.7360244881</v>
+        <v>639973.5699390528</v>
       </c>
       <c r="R15" t="n">
-        <v>6933219.359986998</v>
+        <v>6933520.319573058</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2324,7 +2301,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2007-07-19</t>
+          <t>2008-08-05</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2334,7 +2311,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2007-07-19</t>
+          <t>2008-08-05</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2350,30 +2327,36 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Hans Sundström</t>
+          <t>Andreas Karlberg</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Hans Sundström, Sofia Lundell</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr">
-        <is>
-          <t>Naturskyddare</t>
-        </is>
-      </c>
+          <t>Sofia Lundell, Hans Sundström</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1671661</v>
+        <v>32255</v>
       </c>
       <c r="B16" t="n">
-        <v>89355</v>
+        <v>57587</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2386,37 +2369,46 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5447</v>
+        <v>100141</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Triturus cristatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>(Laurenti, 1768)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>larv</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Ärtåkersberget, Mpd</t>
+          <t>Holmvikberget, Mpd</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>639743.6240542857</v>
+        <v>639944.150379308</v>
       </c>
       <c r="R16" t="n">
-        <v>6933216.452873974</v>
+        <v>6933569.960243458</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2440,7 +2432,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2007-07-19</t>
+          <t>2007-08-29</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2450,7 +2442,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2007-07-19</t>
+          <t>2007-09-06</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2458,6 +2450,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>4021</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2466,35 +2463,30 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>granlåga</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Hans Sundström</t>
+          <t>Andreas Karlberg</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Hans Sundström, Sofia Lundell</t>
+          <t>Via Andreas Karlberg</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>Naturskyddare</t>
+          <t>Åtgärdsprogram för hotade arter</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>55244779</v>
+        <v>1886465</v>
       </c>
       <c r="B17" t="n">
-        <v>96334</v>
+        <v>78503</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2503,41 +2495,41 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>6456</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Ärtåkersberget, Mpd</t>
+          <t>Årtåkersberget, Mpd</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>639710.8040872273</v>
+        <v>639730.1124863401</v>
       </c>
       <c r="R17" t="n">
-        <v>6933236.814618457</v>
+        <v>6933416.640251659</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2561,7 +2553,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2015-08-19</t>
+          <t>2008-08-05</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2571,7 +2563,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2015-08-19</t>
+          <t>2008-08-05</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2591,22 +2583,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Andreas Karlberg</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Sofia Lundell, Hans Sundström</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1886465</v>
+        <v>1673794</v>
       </c>
       <c r="B18" t="n">
-        <v>78503</v>
+        <v>89356</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2619,21 +2611,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6456</v>
+        <v>5447</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2643,10 +2635,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>639730.1124863401</v>
+        <v>639737.6169066937</v>
       </c>
       <c r="R18" t="n">
-        <v>6933416.640251659</v>
+        <v>6933447.484317567</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2699,6 +2691,11 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2715,14 +2712,14 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1673794</v>
+        <v>16638609</v>
       </c>
       <c r="B19" t="n">
-        <v>89356</v>
+        <v>89170</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Behöver inte valideras</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2731,34 +2728,36 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5447</v>
+        <v>3215</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Årtåkersberget, Mpd</t>
+          <t>Åvikebruk i sydväst, Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>639737.6169066937</v>
+        <v>639929.0278371724</v>
       </c>
       <c r="R19" t="n">
-        <v>6933447.484317567</v>
+        <v>6933566.085748027</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2785,7 +2784,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2008-08-05</t>
+          <t>2014-09-11</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2795,7 +2794,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2008-08-05</t>
+          <t>2014-09-11</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2809,23 +2808,24 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Kalkhaltig blandsumpskog</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Andreas Karlberg</t>
+          <t>Crister Albinsson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Sofia Lundell, Hans Sundström</t>
+          <t>Crister Albinsson, Ellen Larsson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
